--- a/Timeseries/ID.xlsx
+++ b/Timeseries/ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iingy\Desktop\project\DataPreprocess\Timeseries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\DataPreprocess\Timeseries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BAE9B2-A510-48CF-BE4D-BC20FC74CEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597C934-616E-429F-B0DE-58753A90D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="11260" windowHeight="7970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -1002,6 +1002,15 @@
   </si>
   <si>
     <t>#ZZLSSL</t>
+  </si>
+  <si>
+    <t>#RUIDVY</t>
+  </si>
+  <si>
+    <t>#ZHWQTF</t>
+  </si>
+  <si>
+    <t>#ZPZIGD</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912F6324-6C4A-4F99-AF97-C6D4D9581371}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CG323"/>
+  <dimension ref="A1:GA326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1389,7 +1398,7 @@
     <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,78 +1654,372 @@
       <c r="CG1" s="2">
         <v>44839</v>
       </c>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="CH1" s="2">
+        <v>44840</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>44841</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>44842</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>44843</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>44844</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>44845</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>44846</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>44847</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>44848</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>44849</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>44850</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>44851</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>44852</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>44853</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>44854</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>44855</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>44856</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>44857</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>44858</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>44859</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>44860</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>44861</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>44862</v>
+      </c>
+      <c r="DE1" s="2">
+        <v>44863</v>
+      </c>
+      <c r="DF1" s="2">
+        <v>44864</v>
+      </c>
+      <c r="DG1" s="2">
+        <v>44865</v>
+      </c>
+      <c r="DH1" s="2">
+        <v>44866</v>
+      </c>
+      <c r="DI1" s="2">
+        <v>44867</v>
+      </c>
+      <c r="DJ1" s="2">
+        <v>44868</v>
+      </c>
+      <c r="DK1" s="2">
+        <v>44869</v>
+      </c>
+      <c r="DL1" s="2">
+        <v>44870</v>
+      </c>
+      <c r="DM1" s="2">
+        <v>44871</v>
+      </c>
+      <c r="DN1" s="2">
+        <v>44872</v>
+      </c>
+      <c r="DO1" s="2">
+        <v>44873</v>
+      </c>
+      <c r="DP1" s="2">
+        <v>44874</v>
+      </c>
+      <c r="DQ1" s="2">
+        <v>44875</v>
+      </c>
+      <c r="DR1" s="2">
+        <v>44876</v>
+      </c>
+      <c r="DS1" s="2">
+        <v>44877</v>
+      </c>
+      <c r="DT1" s="2">
+        <v>44878</v>
+      </c>
+      <c r="DU1" s="2">
+        <v>44879</v>
+      </c>
+      <c r="DV1" s="2">
+        <v>44880</v>
+      </c>
+      <c r="DW1" s="2">
+        <v>44881</v>
+      </c>
+      <c r="DX1" s="2">
+        <v>44882</v>
+      </c>
+      <c r="DY1" s="2">
+        <v>44883</v>
+      </c>
+      <c r="DZ1" s="2">
+        <v>44884</v>
+      </c>
+      <c r="EA1" s="2">
+        <v>44885</v>
+      </c>
+      <c r="EB1" s="2">
+        <v>44886</v>
+      </c>
+      <c r="EC1" s="2">
+        <v>44887</v>
+      </c>
+      <c r="ED1" s="2">
+        <v>44888</v>
+      </c>
+      <c r="EE1" s="2">
+        <v>44889</v>
+      </c>
+      <c r="EF1" s="2">
+        <v>44890</v>
+      </c>
+      <c r="EG1" s="2">
+        <v>44891</v>
+      </c>
+      <c r="EH1" s="2">
+        <v>44892</v>
+      </c>
+      <c r="EI1" s="2">
+        <v>44893</v>
+      </c>
+      <c r="EJ1" s="2">
+        <v>44894</v>
+      </c>
+      <c r="EK1" s="2">
+        <v>44895</v>
+      </c>
+      <c r="EL1" s="2">
+        <v>44896</v>
+      </c>
+      <c r="EM1" s="2">
+        <v>44897</v>
+      </c>
+      <c r="EN1" s="2">
+        <v>44898</v>
+      </c>
+      <c r="EO1" s="2">
+        <v>44899</v>
+      </c>
+      <c r="EP1" s="2">
+        <v>44900</v>
+      </c>
+      <c r="EQ1" s="2">
+        <v>44901</v>
+      </c>
+      <c r="ER1" s="2">
+        <v>44902</v>
+      </c>
+      <c r="ES1" s="2">
+        <v>44903</v>
+      </c>
+      <c r="ET1" s="2">
+        <v>44904</v>
+      </c>
+      <c r="EU1" s="2">
+        <v>44905</v>
+      </c>
+      <c r="EV1" s="2">
+        <v>44906</v>
+      </c>
+      <c r="EW1" s="2">
+        <v>44907</v>
+      </c>
+      <c r="EX1" s="2">
+        <v>44908</v>
+      </c>
+      <c r="EY1" s="2">
+        <v>44909</v>
+      </c>
+      <c r="EZ1" s="2">
+        <v>44910</v>
+      </c>
+      <c r="FA1" s="2">
+        <v>44911</v>
+      </c>
+      <c r="FB1" s="2">
+        <v>44912</v>
+      </c>
+      <c r="FC1" s="2">
+        <v>44913</v>
+      </c>
+      <c r="FD1" s="2">
+        <v>44914</v>
+      </c>
+      <c r="FE1" s="2">
+        <v>44915</v>
+      </c>
+      <c r="FF1" s="2">
+        <v>44916</v>
+      </c>
+      <c r="FG1" s="2">
+        <v>44917</v>
+      </c>
+      <c r="FH1" s="2">
+        <v>44918</v>
+      </c>
+      <c r="FI1" s="2">
+        <v>44919</v>
+      </c>
+      <c r="FJ1" s="2">
+        <v>44920</v>
+      </c>
+      <c r="FK1" s="2">
+        <v>44921</v>
+      </c>
+      <c r="FL1" s="2">
+        <v>44922</v>
+      </c>
+      <c r="FM1" s="2">
+        <v>44923</v>
+      </c>
+      <c r="FN1" s="2">
+        <v>44924</v>
+      </c>
+      <c r="FO1" s="2">
+        <v>44925</v>
+      </c>
+      <c r="FP1" s="2">
+        <v>44926</v>
+      </c>
+      <c r="FQ1" s="2">
+        <v>44927</v>
+      </c>
+      <c r="FR1" s="2">
+        <v>44928</v>
+      </c>
+      <c r="FS1" s="2">
+        <v>44929</v>
+      </c>
+      <c r="FT1" s="2">
+        <v>44930</v>
+      </c>
+      <c r="FU1" s="2">
+        <v>44931</v>
+      </c>
+      <c r="FV1" s="2">
+        <v>44932</v>
+      </c>
+      <c r="FW1" s="2">
+        <v>44933</v>
+      </c>
+      <c r="FX1" s="2">
+        <v>44934</v>
+      </c>
+      <c r="FY1" s="2">
+        <v>44935</v>
+      </c>
+      <c r="FZ1" s="2">
+        <v>44936</v>
+      </c>
+      <c r="GA1" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:183" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2778,481 +3081,496 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
         <v>322</v>
       </c>
     </row>
